--- a/.source/poligonu.xlsx
+++ b/.source/poligonu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_1E5E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B82DCA93-A61E-4557-AEDC-85138CC9BBCD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5FB9D4-E49D-41CE-8FD1-876B188F6A1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="20730" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B7" sqref="A3:B7"/>
+      <selection activeCell="A10" sqref="A10:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,14 +453,7 @@
         <f>F2*0.06</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="H2">
-        <f>G2/$G$6</f>
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="I2" s="4">
-        <f>$E$6*H2</f>
-        <v>6.4871794871787338E-5</v>
-      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="3"/>
@@ -480,14 +473,7 @@
         <f t="shared" ref="G3:G5" si="0">F3*0.06</f>
         <v>0.36</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="1">G3/$G$6</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I5" si="2">$E$6*H3</f>
-        <v>3.5384615384611276E-5</v>
-      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="3"/>
@@ -507,14 +493,7 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.25641025641025644</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="2"/>
-        <v>5.8974358974352131E-5</v>
-      </c>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="3"/>
@@ -534,29 +513,27 @@
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>7.0769230769222551E-5</v>
-      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="3"/>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="4">
-        <f>SUM(E2:E5)</f>
-        <v>2.2999999999997328E-4</v>
+        <v>0.81015999999999999</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
       </c>
       <c r="G6" s="2">
-        <f>SUM(G2:G5)</f>
-        <v>2.34</v>
-      </c>
-      <c r="I6" s="4">
-        <f>SUM(I2:I5)</f>
-        <v>2.2999999999997328E-4</v>
-      </c>
+        <f>F6*0.06</f>
+        <v>0.78</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
@@ -565,26 +542,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4">
-        <v>0.81015999999999999</v>
+        <v>2.6262599999999998</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <f>F7*0.06</f>
-        <v>0.78</v>
-      </c>
-      <c r="H7">
-        <f>G7/$G$11</f>
-        <v>0.28260869565217395</v>
-      </c>
-      <c r="I7" s="4">
-        <f>$E$11*H7</f>
-        <v>-1.4130434782638517E-5</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="3"/>
@@ -592,88 +562,43 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
-        <v>2.6262599999999998</v>
+        <v>-2.7127300000000001</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <f>F8*0.06</f>
-        <v>0.6</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H10" si="3">G8/$G$11</f>
-        <v>0.21739130434782611</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" ref="I8:I10" si="4">$E$6*H8</f>
-        <v>4.9999999999994195E-5</v>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>-2.7127300000000001</v>
+        <v>-0.72374000000000005</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2">
         <f>F9*0.06</f>
-        <v>0.72</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>5.9999999999993029E-5</v>
-      </c>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-0.72374000000000005</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2">
-        <f>F10*0.06</f>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.23913043478260868</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="4"/>
-        <v>5.4999999999993605E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="E11" s="4">
-        <f>SUM(E7:E10)+K2</f>
-        <v>-5.0000000000105516E-5</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM(G7:G10)</f>
-        <v>2.76</v>
-      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
